--- a/biology/Zoologie/Androctonus_amoreuxi/Androctonus_amoreuxi.xlsx
+++ b/biology/Zoologie/Androctonus_amoreuxi/Androctonus_amoreuxi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Androctonus amoreuxi ou Scorpion à queue grasse est une espèce de scorpions de la famille des Buthidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Mauritanie, au Maroc, en Algérie, au Niger, au Tchad, en Libye, au Soudan, en Égypte, en Israël, au Liban, en Syrie et en Jordanie[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Mauritanie, au Maroc, en Algérie, au Niger, au Tchad, en Libye, au Soudan, en Égypte, en Israël, au Liban, en Syrie et en Jordanie,.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Androctonus amoreuxi mesure jusqu'à 110 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Androctonus amoreuxi mesure jusqu'à 110 mm.
 Le telson (dernier segment de la queue) possède un aiguillon aigu et canulé à deux orifices  reliés chacun à une glande venimeuse. 
-Son venin est neurotoxique, fortement toxique et mortel pour l'homme. Les effets d'une envenimation vont d'une simple douleur vive à des problèmes cardio-vasculaires ou un œdème pulmonaire voire un décès.En cas de piqûre, il faut bien sûr aller immédiatement dans un lieu médicalisé et recevoir, c'est primordial, le sérum antivenimeux existant[3].
+Son venin est neurotoxique, fortement toxique et mortel pour l'homme. Les effets d'une envenimation vont d'une simple douleur vive à des problèmes cardio-vasculaires ou un œdème pulmonaire voire un décès.En cas de piqûre, il faut bien sûr aller immédiatement dans un lieu médicalisé et recevoir, c'est primordial, le sérum antivenimeux existant.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Scorpion Files (10/09/2020)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Scorpion Files (10/09/2020) :
 Androctonus amoreuxi amoreuxi (Audouin, 1826)
 Androctonus amoreuxi levyi Fet, 1997</t>
         </is>
@@ -607,9 +625,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Pierre-Joseph Amoreux[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Pierre-Joseph Amoreux.
 </t>
         </is>
       </c>
@@ -638,7 +658,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Audouin, 1826 : « Explication sommaire des planches d'arachnides de l'Égypte et de la Syrie publiées par J. C. Savigny, membre de l'Institut; offrant un exposé des caractères naturels des genres avec la distinction des espèces. » Description de l'Égypte, ou Recueil des observations et des recherches qui ont été faites en Égypte pendant l'expédition de l'armée française. Histoire Naturelle, tome 1, partie 4, p. 99-186.
 Fet, 1997 : « Notes on the taxonomy of some old world scorpions (Scorpiones: Buthidae, Chactidae, Ischnuridae, Scorpionidae). » Journal of Arachnology, vol. 25, no 3, p. 245-250 (texte intégral).
